--- a/output_intersected.xlsx
+++ b/output_intersected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Track Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Segment Area</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Searchers</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ESW (meters)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TL (meters)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TTL (meters)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AES (sq meters)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Coverage</t>
         </is>
@@ -481,25 +486,30 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Track1_GroundSAR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2714862.60586654</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4514.521671232311</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>22572.60835616155</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>248298.6919177771</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.09145902683297086</v>
       </c>
     </row>
@@ -509,25 +519,30 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Track2_K9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1066314.982848571</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2848.834731718643</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>14244.17365859321</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>156685.9102445253</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.1469414879888042</v>
       </c>
     </row>
